--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H2">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I2">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J2">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>46.25093466666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N2">
-        <v>138.752804</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9569015955251317</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P2">
-        <v>0.9569015955251318</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q2">
-        <v>1339.255137805533</v>
+        <v>0.4502872562702222</v>
       </c>
       <c r="R2">
-        <v>12053.29624024979</v>
+        <v>4.052585306431999</v>
       </c>
       <c r="S2">
-        <v>0.5254398519641597</v>
+        <v>0.0001318888190856161</v>
       </c>
       <c r="T2">
-        <v>0.5254398519641599</v>
+        <v>0.0001318888190856161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H3">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I3">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J3">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.066797333333334</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N3">
-        <v>6.200392000000001</v>
+        <v>138.752804</v>
       </c>
       <c r="O3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q3">
-        <v>59.8467677987129</v>
+        <v>2114.40723587803</v>
       </c>
       <c r="R3">
-        <v>538.620910188416</v>
+        <v>19029.66512290227</v>
       </c>
       <c r="S3">
-        <v>0.02348012408167089</v>
+        <v>0.6193083848650699</v>
       </c>
       <c r="T3">
-        <v>0.02348012408167089</v>
+        <v>0.6193083848650699</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H4">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I4">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J4">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01632333333333333</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N4">
-        <v>0.04897</v>
+        <v>7.823689</v>
       </c>
       <c r="O4">
-        <v>0.0003377190931065126</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P4">
-        <v>0.0003377190931065127</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q4">
-        <v>0.4726630540622222</v>
+        <v>119.2225609571058</v>
       </c>
       <c r="R4">
-        <v>4.25396748656</v>
+        <v>1073.003048613952</v>
       </c>
       <c r="S4">
-        <v>0.0001854433842698047</v>
+        <v>0.03492020383441486</v>
       </c>
       <c r="T4">
-        <v>0.0001854433842698048</v>
+        <v>0.03492020383441486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.691493</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H5">
-        <v>38.074479</v>
+        <v>137.147968</v>
       </c>
       <c r="I5">
-        <v>0.2406720388519202</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J5">
-        <v>0.2406720388519202</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>46.25093466666667</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N5">
-        <v>138.752804</v>
+        <v>0.120943</v>
       </c>
       <c r="O5">
-        <v>0.9569015955251317</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P5">
-        <v>0.9569015955251318</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q5">
-        <v>586.9934135654573</v>
+        <v>1.843009632647111</v>
       </c>
       <c r="R5">
-        <v>5282.940722089115</v>
+        <v>16.587086693824</v>
       </c>
       <c r="S5">
-        <v>0.2302994579756889</v>
+        <v>0.0005398162187103343</v>
       </c>
       <c r="T5">
-        <v>0.2302994579756889</v>
+        <v>0.0005398162187103343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.066797333333334</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N6">
-        <v>6.200392000000001</v>
+        <v>0.029549</v>
       </c>
       <c r="O6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P6">
-        <v>0.04276068538176182</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q6">
-        <v>26.23074388841867</v>
+        <v>0.1250069755523333</v>
       </c>
       <c r="R6">
-        <v>236.076694995768</v>
+        <v>1.125062779971</v>
       </c>
       <c r="S6">
-        <v>0.01029130133353412</v>
+        <v>3.661445478076707E-05</v>
       </c>
       <c r="T6">
-        <v>0.01029130133353412</v>
+        <v>3.661445478076707E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01632333333333333</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N7">
-        <v>0.04897</v>
+        <v>138.752804</v>
       </c>
       <c r="O7">
-        <v>0.0003377190931065126</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P7">
-        <v>0.0003377190931065127</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q7">
-        <v>0.2071674707366666</v>
+        <v>586.9934135654573</v>
       </c>
       <c r="R7">
-        <v>1.86450723663</v>
+        <v>5282.940722089115</v>
       </c>
       <c r="S7">
-        <v>8.127954269716586E-05</v>
+        <v>0.1719299559295623</v>
       </c>
       <c r="T7">
-        <v>8.127954269716587E-05</v>
+        <v>0.1719299559295623</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.59691233333333</v>
+        <v>12.691493</v>
       </c>
       <c r="H8">
-        <v>31.790737</v>
+        <v>38.074479</v>
       </c>
       <c r="I8">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J8">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.25093466666667</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N8">
-        <v>138.752804</v>
+        <v>7.823689</v>
       </c>
       <c r="O8">
-        <v>0.9569015955251317</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P8">
-        <v>0.9569015955251318</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q8">
-        <v>490.1170999973942</v>
+        <v>33.09809805922566</v>
       </c>
       <c r="R8">
-        <v>4411.053899976548</v>
+        <v>297.882882533031</v>
       </c>
       <c r="S8">
-        <v>0.1922912589230093</v>
+        <v>0.009694409526863337</v>
       </c>
       <c r="T8">
-        <v>0.1922912589230093</v>
+        <v>0.009694409526863337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.59691233333333</v>
+        <v>12.691493</v>
       </c>
       <c r="H9">
-        <v>31.790737</v>
+        <v>38.074479</v>
       </c>
       <c r="I9">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J9">
-        <v>0.200951968125294</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.066797333333334</v>
+        <v>0.04031433333333333</v>
       </c>
       <c r="N9">
-        <v>6.200392000000001</v>
+        <v>0.120943</v>
       </c>
       <c r="O9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565416</v>
       </c>
       <c r="P9">
-        <v>0.04276068538176182</v>
+        <v>0.0008242723722565415</v>
       </c>
       <c r="Q9">
-        <v>21.90167015210045</v>
+        <v>0.5116490792996666</v>
       </c>
       <c r="R9">
-        <v>197.115031368904</v>
+        <v>4.604841713697</v>
       </c>
       <c r="S9">
-        <v>0.008592843885851529</v>
+        <v>0.0001498616536786461</v>
       </c>
       <c r="T9">
-        <v>0.008592843885851529</v>
+        <v>0.000149861653678646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H10">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01632333333333333</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N10">
-        <v>0.04897</v>
+        <v>0.029549</v>
       </c>
       <c r="O10">
-        <v>0.0003377190931065126</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P10">
-        <v>0.0003377190931065127</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q10">
-        <v>0.1729769323211111</v>
+        <v>0.1107875403844444</v>
       </c>
       <c r="R10">
-        <v>1.55679239089</v>
+        <v>0.9970878634599999</v>
       </c>
       <c r="S10">
-        <v>6.786531643324314E-05</v>
+        <v>3.244959227079653E-05</v>
       </c>
       <c r="T10">
-        <v>6.786531643324315E-05</v>
+        <v>3.244959227079653E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4888703333333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H11">
-        <v>1.466611</v>
+        <v>33.74354</v>
       </c>
       <c r="I11">
-        <v>0.009270573592685365</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J11">
-        <v>0.009270573592685367</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>138.752804</v>
       </c>
       <c r="O11">
-        <v>0.9569015955251317</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P11">
-        <v>0.9569015955251318</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q11">
-        <v>22.61070984747155</v>
+        <v>520.2234213206845</v>
       </c>
       <c r="R11">
-        <v>203.496388627244</v>
+        <v>4682.010791886159</v>
       </c>
       <c r="S11">
-        <v>0.008871026662273778</v>
+        <v>0.1523730723960116</v>
       </c>
       <c r="T11">
-        <v>0.00887102666227378</v>
+        <v>0.1523730723960116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4888703333333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H12">
-        <v>1.466611</v>
+        <v>33.74354</v>
       </c>
       <c r="I12">
-        <v>0.009270573592685365</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J12">
-        <v>0.009270573592685367</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.066797333333334</v>
+        <v>2.607896333333333</v>
       </c>
       <c r="N12">
-        <v>6.200392000000001</v>
+        <v>7.823689</v>
       </c>
       <c r="O12">
-        <v>0.04276068538176182</v>
+        <v>0.05332140505715427</v>
       </c>
       <c r="P12">
-        <v>0.04276068538176182</v>
+        <v>0.05332140505715428</v>
       </c>
       <c r="Q12">
-        <v>1.010395901279111</v>
+        <v>29.33321807989555</v>
       </c>
       <c r="R12">
-        <v>9.093563111512001</v>
+        <v>263.99896271906</v>
       </c>
       <c r="S12">
-        <v>0.0003964160807052883</v>
+        <v>0.008591678842042568</v>
       </c>
       <c r="T12">
-        <v>0.0003964160807052883</v>
+        <v>0.008591678842042568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,46 +1219,294 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4888703333333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H13">
-        <v>1.466611</v>
+        <v>33.74354</v>
       </c>
       <c r="I13">
-        <v>0.009270573592685365</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J13">
-        <v>0.009270573592685367</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.120943</v>
+      </c>
+      <c r="O13">
+        <v>0.0008242723722565416</v>
+      </c>
+      <c r="P13">
+        <v>0.0008242723722565415</v>
+      </c>
+      <c r="Q13">
+        <v>0.4534494398022222</v>
+      </c>
+      <c r="R13">
+        <v>4.08104495822</v>
+      </c>
+      <c r="S13">
+        <v>0.000132815020407017</v>
+      </c>
+      <c r="T13">
+        <v>0.000132815020407017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="L13">
+      <c r="F14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M13">
-        <v>0.01632333333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.04897</v>
-      </c>
-      <c r="O13">
-        <v>0.0003377190931065126</v>
-      </c>
-      <c r="P13">
-        <v>0.0003377190931065127</v>
-      </c>
-      <c r="Q13">
-        <v>0.007979993407777776</v>
-      </c>
-      <c r="R13">
-        <v>0.07181994067</v>
-      </c>
-      <c r="S13">
-        <v>3.130849706298886E-06</v>
-      </c>
-      <c r="T13">
-        <v>3.130849706298887E-06</v>
+      <c r="G14">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.452102</v>
+      </c>
+      <c r="I14">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J14">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.009849666666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.029549</v>
+      </c>
+      <c r="O14">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="P14">
+        <v>0.0002013876315934659</v>
+      </c>
+      <c r="Q14">
+        <v>0.001484351333111111</v>
+      </c>
+      <c r="R14">
+        <v>0.013359161998</v>
+      </c>
+      <c r="S14">
+        <v>4.347654562862005E-07</v>
+      </c>
+      <c r="T14">
+        <v>4.347654562862004E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.452102</v>
+      </c>
+      <c r="I15">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J15">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.25093466666667</v>
+      </c>
+      <c r="N15">
+        <v>138.752804</v>
+      </c>
+      <c r="O15">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="P15">
+        <v>0.9456529349389956</v>
+      </c>
+      <c r="Q15">
+        <v>6.970046688223111</v>
+      </c>
+      <c r="R15">
+        <v>62.730420194008</v>
+      </c>
+      <c r="S15">
+        <v>0.002041521748351881</v>
+      </c>
+      <c r="T15">
+        <v>0.002041521748351881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.452102</v>
+      </c>
+      <c r="I16">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J16">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.607896333333333</v>
+      </c>
+      <c r="N16">
+        <v>7.823689</v>
+      </c>
+      <c r="O16">
+        <v>0.05332140505715427</v>
+      </c>
+      <c r="P16">
+        <v>0.05332140505715428</v>
+      </c>
+      <c r="Q16">
+        <v>0.3930117160308889</v>
+      </c>
+      <c r="R16">
+        <v>3.537105444278</v>
+      </c>
+      <c r="S16">
+        <v>0.000115112853833508</v>
+      </c>
+      <c r="T16">
+        <v>0.000115112853833508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1507006666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.452102</v>
+      </c>
+      <c r="I17">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="J17">
+        <v>0.00215884884710222</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.120943</v>
+      </c>
+      <c r="O17">
+        <v>0.0008242723722565416</v>
+      </c>
+      <c r="P17">
+        <v>0.0008242723722565415</v>
+      </c>
+      <c r="Q17">
+        <v>0.006075396909555556</v>
+      </c>
+      <c r="R17">
+        <v>0.05467857218599999</v>
+      </c>
+      <c r="S17">
+        <v>1.779479460544247E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.779479460544246E-06</v>
       </c>
     </row>
   </sheetData>
